--- a/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98125</v>
+        <v>98154</v>
       </c>
       <c r="D2" t="n">
         <v>18954</v>
       </c>
       <c r="E2" t="n">
-        <v>320595965</v>
+        <v>320680862</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241298</v>
+        <v>241382</v>
       </c>
       <c r="D3" t="n">
         <v>47410</v>
       </c>
       <c r="E3" t="n">
-        <v>1012681692</v>
+        <v>1013187248</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +574,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98865</v>
+        <v>98911</v>
       </c>
       <c r="D4" t="n">
-        <v>18667</v>
+        <v>18668</v>
       </c>
       <c r="E4" t="n">
-        <v>602248361</v>
+        <v>602618258</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +615,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37306</v>
+        <v>37333</v>
       </c>
       <c r="D5" t="n">
         <v>6615</v>
       </c>
       <c r="E5" t="n">
-        <v>340011430</v>
+        <v>340417449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +656,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19146</v>
+        <v>19170</v>
       </c>
       <c r="D6" t="n">
         <v>3253</v>
       </c>
       <c r="E6" t="n">
-        <v>329894149</v>
+        <v>330363567</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6221</v>
+        <v>6226</v>
       </c>
       <c r="D7" t="n">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E7" t="n">
-        <v>252719392</v>
+        <v>252972465</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D8" t="n">
         <v>188</v>
       </c>
       <c r="E8" t="n">
-        <v>77426448</v>
+        <v>77435663</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -794,13 +861,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>7669086</v>
+        <v>7739045</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -917,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>108347</v>
+        <v>108385</v>
       </c>
       <c r="D14" t="n">
-        <v>20929</v>
+        <v>20931</v>
       </c>
       <c r="E14" t="n">
-        <v>248726152</v>
+        <v>248800072</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +1025,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24130</v>
+        <v>24136</v>
       </c>
       <c r="D15" t="n">
-        <v>4831</v>
+        <v>4832</v>
       </c>
       <c r="E15" t="n">
-        <v>78481359</v>
+        <v>78493005</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -999,13 +1066,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66227</v>
+        <v>66245</v>
       </c>
       <c r="D16" t="n">
-        <v>13570</v>
+        <v>13571</v>
       </c>
       <c r="E16" t="n">
-        <v>273927317</v>
+        <v>273957276</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1040,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24716</v>
+        <v>24726</v>
       </c>
       <c r="D17" t="n">
         <v>4981</v>
       </c>
       <c r="E17" t="n">
-        <v>143024559</v>
+        <v>143106775</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1148,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8359</v>
+        <v>8364</v>
       </c>
       <c r="D18" t="n">
         <v>1628</v>
       </c>
       <c r="E18" t="n">
-        <v>67593238</v>
+        <v>67617867</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="D19" t="n">
         <v>724</v>
       </c>
       <c r="E19" t="n">
-        <v>61779587</v>
+        <v>61784120</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1286,13 +1353,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22957</v>
+        <v>22965</v>
       </c>
       <c r="D23" t="n">
-        <v>5068</v>
+        <v>5069</v>
       </c>
       <c r="E23" t="n">
-        <v>47035734</v>
+        <v>47043647</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1327,13 +1394,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34959</v>
+        <v>34965</v>
       </c>
       <c r="D24" t="n">
         <v>6482</v>
       </c>
       <c r="E24" t="n">
-        <v>130909048</v>
+        <v>130956592</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1435,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>83160</v>
+        <v>83192</v>
       </c>
       <c r="D25" t="n">
         <v>16438</v>
       </c>
       <c r="E25" t="n">
-        <v>369002875</v>
+        <v>369107381</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1476,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32691</v>
+        <v>32708</v>
       </c>
       <c r="D26" t="n">
         <v>6477</v>
       </c>
       <c r="E26" t="n">
-        <v>197980241</v>
+        <v>198096641</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11321</v>
+        <v>11326</v>
       </c>
       <c r="D27" t="n">
         <v>2233</v>
       </c>
       <c r="E27" t="n">
-        <v>98665367</v>
+        <v>98687082</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1491,13 +1558,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5394</v>
+        <v>5402</v>
       </c>
       <c r="D28" t="n">
         <v>984</v>
       </c>
       <c r="E28" t="n">
-        <v>81846870</v>
+        <v>82066609</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1737,13 +1804,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24855</v>
+        <v>24865</v>
       </c>
       <c r="D34" t="n">
-        <v>5606</v>
+        <v>5607</v>
       </c>
       <c r="E34" t="n">
-        <v>50910832</v>
+        <v>50929810</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1778,13 +1845,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18793</v>
+        <v>18799</v>
       </c>
       <c r="D35" t="n">
         <v>3782</v>
       </c>
       <c r="E35" t="n">
-        <v>61015368</v>
+        <v>61050438</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1819,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>55276</v>
+        <v>55297</v>
       </c>
       <c r="D36" t="n">
         <v>11690</v>
       </c>
       <c r="E36" t="n">
-        <v>219716759</v>
+        <v>219773685</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,13 +1927,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22163</v>
+        <v>22180</v>
       </c>
       <c r="D37" t="n">
         <v>4648</v>
       </c>
       <c r="E37" t="n">
-        <v>125713888</v>
+        <v>125791018</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6902</v>
+        <v>6905</v>
       </c>
       <c r="D38" t="n">
         <v>1428</v>
       </c>
       <c r="E38" t="n">
-        <v>54761111</v>
+        <v>54777150</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +2009,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3368</v>
+        <v>3371</v>
       </c>
       <c r="D39" t="n">
         <v>619</v>
       </c>
       <c r="E39" t="n">
-        <v>53701479</v>
+        <v>53715377</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +2050,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D40" t="n">
         <v>205</v>
       </c>
       <c r="E40" t="n">
-        <v>33405715</v>
+        <v>33605715</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2065,13 +2132,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17829</v>
+        <v>17839</v>
       </c>
       <c r="D42" t="n">
-        <v>3970</v>
+        <v>3973</v>
       </c>
       <c r="E42" t="n">
-        <v>35808999</v>
+        <v>35840536</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2106,13 +2173,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10371</v>
+        <v>10373</v>
       </c>
       <c r="D43" t="n">
         <v>1533</v>
       </c>
       <c r="E43" t="n">
-        <v>42205274</v>
+        <v>42206604</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2147,13 +2214,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22904</v>
+        <v>22906</v>
       </c>
       <c r="D44" t="n">
         <v>3848</v>
       </c>
       <c r="E44" t="n">
-        <v>97918909</v>
+        <v>97920049</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2255,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10668</v>
+        <v>10671</v>
       </c>
       <c r="D45" t="n">
         <v>1770</v>
       </c>
       <c r="E45" t="n">
-        <v>65175889</v>
+        <v>65187427</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="D46" t="n">
         <v>601</v>
       </c>
       <c r="E46" t="n">
-        <v>30972226</v>
+        <v>30973335</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2337,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D47" t="n">
         <v>282</v>
       </c>
       <c r="E47" t="n">
-        <v>30098911</v>
+        <v>30103008</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2393,13 +2460,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6220</v>
+        <v>6222</v>
       </c>
       <c r="D50" t="n">
         <v>1240</v>
       </c>
       <c r="E50" t="n">
-        <v>12018779</v>
+        <v>12021183</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45631</v>
+        <v>45649</v>
       </c>
       <c r="D51" t="n">
-        <v>9405</v>
+        <v>9407</v>
       </c>
       <c r="E51" t="n">
-        <v>152724291</v>
+        <v>152769353</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2475,13 +2542,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>136829</v>
+        <v>136881</v>
       </c>
       <c r="D52" t="n">
-        <v>28706</v>
+        <v>28707</v>
       </c>
       <c r="E52" t="n">
-        <v>573673188</v>
+        <v>573889778</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>57574</v>
+        <v>57592</v>
       </c>
       <c r="D53" t="n">
-        <v>11631</v>
+        <v>11633</v>
       </c>
       <c r="E53" t="n">
-        <v>335825579</v>
+        <v>335907739</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>21923</v>
+        <v>21937</v>
       </c>
       <c r="D54" t="n">
         <v>4091</v>
       </c>
       <c r="E54" t="n">
-        <v>177747984</v>
+        <v>177950692</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2665,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>10970</v>
+        <v>10976</v>
       </c>
       <c r="D55" t="n">
         <v>1802</v>
       </c>
       <c r="E55" t="n">
-        <v>170709236</v>
+        <v>170894474</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3291</v>
+        <v>3298</v>
       </c>
       <c r="D56" t="n">
         <v>619</v>
       </c>
       <c r="E56" t="n">
-        <v>123647538</v>
+        <v>124134729</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2803,13 +2870,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>50228</v>
+        <v>50245</v>
       </c>
       <c r="D60" t="n">
         <v>11447</v>
       </c>
       <c r="E60" t="n">
-        <v>130387733</v>
+        <v>130441907</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2844,13 +2911,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3736</v>
+        <v>3738</v>
       </c>
       <c r="D61" t="n">
         <v>781</v>
       </c>
       <c r="E61" t="n">
-        <v>8105224</v>
+        <v>8106981</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2952,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>12378</v>
+        <v>12384</v>
       </c>
       <c r="D62" t="n">
         <v>2778</v>
       </c>
       <c r="E62" t="n">
-        <v>30691688</v>
+        <v>30712577</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4247</v>
+        <v>4250</v>
       </c>
       <c r="D63" t="n">
         <v>1035</v>
       </c>
       <c r="E63" t="n">
-        <v>14686266</v>
+        <v>14701512</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="D64" t="n">
         <v>387</v>
       </c>
       <c r="E64" t="n">
-        <v>8280872</v>
+        <v>8308298</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D65" t="n">
         <v>125</v>
       </c>
       <c r="E65" t="n">
-        <v>5566187</v>
+        <v>5580460</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3172,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13694</v>
+        <v>13699</v>
       </c>
       <c r="D69" t="n">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="E69" t="n">
-        <v>21925865</v>
+        <v>21930505</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3254,13 +3321,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="D71" t="n">
         <v>951</v>
       </c>
       <c r="E71" t="n">
-        <v>14005295</v>
+        <v>14008295</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D72" t="n">
         <v>410</v>
       </c>
       <c r="E72" t="n">
-        <v>6456215</v>
+        <v>6466215</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3459,13 +3526,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="D76" t="n">
         <v>557</v>
       </c>
       <c r="E76" t="n">
-        <v>7453216</v>
+        <v>7456216</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3500,13 +3567,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>37617</v>
+        <v>37628</v>
       </c>
       <c r="D77" t="n">
-        <v>7446</v>
+        <v>7447</v>
       </c>
       <c r="E77" t="n">
-        <v>111561120</v>
+        <v>111579839</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3541,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>112931</v>
+        <v>112963</v>
       </c>
       <c r="D78" t="n">
         <v>22713</v>
       </c>
       <c r="E78" t="n">
-        <v>438141631</v>
+        <v>438191873</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>46170</v>
+        <v>46180</v>
       </c>
       <c r="D79" t="n">
         <v>9044</v>
       </c>
       <c r="E79" t="n">
-        <v>261790451</v>
+        <v>261831058</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3690,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>16524</v>
+        <v>16528</v>
       </c>
       <c r="D80" t="n">
         <v>3205</v>
       </c>
       <c r="E80" t="n">
-        <v>126138367</v>
+        <v>126305139</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7781</v>
+        <v>7783</v>
       </c>
       <c r="D81" t="n">
         <v>1379</v>
       </c>
       <c r="E81" t="n">
-        <v>113883722</v>
+        <v>113902718</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,13 +3772,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3066</v>
+        <v>3073</v>
       </c>
       <c r="D82" t="n">
         <v>614</v>
       </c>
       <c r="E82" t="n">
-        <v>105981635</v>
+        <v>106184779</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3992,13 +4059,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33483</v>
+        <v>33493</v>
       </c>
       <c r="D89" t="n">
-        <v>7214</v>
+        <v>7215</v>
       </c>
       <c r="E89" t="n">
-        <v>66251249</v>
+        <v>66265903</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4100,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>144341</v>
+        <v>144423</v>
       </c>
       <c r="D90" t="n">
-        <v>24734</v>
+        <v>24735</v>
       </c>
       <c r="E90" t="n">
-        <v>455983756</v>
+        <v>456235223</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4074,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>388926</v>
+        <v>389165</v>
       </c>
       <c r="D91" t="n">
         <v>70798</v>
       </c>
       <c r="E91" t="n">
-        <v>1497366248</v>
+        <v>1498677737</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4115,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>195314</v>
+        <v>195477</v>
       </c>
       <c r="D92" t="n">
-        <v>34198</v>
+        <v>34199</v>
       </c>
       <c r="E92" t="n">
-        <v>1188915514</v>
+        <v>1190615095</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4156,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>85471</v>
+        <v>85556</v>
       </c>
       <c r="D93" t="n">
-        <v>13763</v>
+        <v>13764</v>
       </c>
       <c r="E93" t="n">
-        <v>793571055</v>
+        <v>794977153</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4197,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>44455</v>
+        <v>44520</v>
       </c>
       <c r="D94" t="n">
         <v>6947</v>
       </c>
       <c r="E94" t="n">
-        <v>778303350</v>
+        <v>779964141</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4238,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>14117</v>
+        <v>14145</v>
       </c>
       <c r="D95" t="n">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="E95" t="n">
-        <v>618514452</v>
+        <v>619736556</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="D96" t="n">
         <v>363</v>
       </c>
       <c r="E96" t="n">
-        <v>159689132</v>
+        <v>159834607</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D97" t="n">
         <v>178</v>
       </c>
       <c r="E97" t="n">
-        <v>96194458</v>
+        <v>96313991</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4566,13 +4633,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>129620</v>
+        <v>129682</v>
       </c>
       <c r="D103" t="n">
-        <v>22803</v>
+        <v>22814</v>
       </c>
       <c r="E103" t="n">
-        <v>260880355</v>
+        <v>260979657</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4648,13 +4715,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>17310</v>
+        <v>17312</v>
       </c>
       <c r="D105" t="n">
         <v>4975</v>
       </c>
       <c r="E105" t="n">
-        <v>38461112</v>
+        <v>38464584</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4853,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D110" t="n">
         <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>2427909</v>
+        <v>2516917</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4935,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8341</v>
+        <v>8344</v>
       </c>
       <c r="D112" t="n">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E112" t="n">
-        <v>12175532</v>
+        <v>12178282</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4976,13 +5043,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="D113" t="n">
         <v>688</v>
       </c>
       <c r="E113" t="n">
-        <v>7965987</v>
+        <v>7966293</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5017,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9884</v>
+        <v>9890</v>
       </c>
       <c r="D114" t="n">
         <v>2230</v>
       </c>
       <c r="E114" t="n">
-        <v>27791163</v>
+        <v>27819150</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5140,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D117" t="n">
         <v>151</v>
       </c>
       <c r="E117" t="n">
-        <v>5794293</v>
+        <v>5817941</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5263,13 +5330,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6958</v>
+        <v>6963</v>
       </c>
       <c r="D120" t="n">
         <v>1421</v>
       </c>
       <c r="E120" t="n">
-        <v>10811194</v>
+        <v>10818608</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D121" t="n">
         <v>241</v>
       </c>
       <c r="E121" t="n">
-        <v>4379573</v>
+        <v>4381353</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5550,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>27271</v>
+        <v>27280</v>
       </c>
       <c r="D127" t="n">
         <v>5220</v>
       </c>
       <c r="E127" t="n">
-        <v>91681587</v>
+        <v>91698206</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5591,13 +5658,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>73375</v>
+        <v>73400</v>
       </c>
       <c r="D128" t="n">
-        <v>15090</v>
+        <v>15091</v>
       </c>
       <c r="E128" t="n">
-        <v>302588111</v>
+        <v>302707870</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5632,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>29115</v>
+        <v>29131</v>
       </c>
       <c r="D129" t="n">
         <v>5779</v>
       </c>
       <c r="E129" t="n">
-        <v>168006205</v>
+        <v>168061685</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5673,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>10522</v>
+        <v>10524</v>
       </c>
       <c r="D130" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E130" t="n">
-        <v>86402502</v>
+        <v>86418986</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5755,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="D132" t="n">
         <v>324</v>
       </c>
       <c r="E132" t="n">
-        <v>60312442</v>
+        <v>60403327</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D134" t="n">
         <v>14</v>
       </c>
       <c r="E134" t="n">
-        <v>5525674</v>
+        <v>5725674</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5960,13 +6027,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20832</v>
+        <v>20836</v>
       </c>
       <c r="D137" t="n">
         <v>4629</v>
       </c>
       <c r="E137" t="n">
-        <v>41752805</v>
+        <v>41762225</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6001,13 +6068,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>78739</v>
+        <v>78752</v>
       </c>
       <c r="D138" t="n">
         <v>14949</v>
       </c>
       <c r="E138" t="n">
-        <v>276731356</v>
+        <v>276764755</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>164033</v>
+        <v>164087</v>
       </c>
       <c r="D139" t="n">
-        <v>34942</v>
+        <v>34946</v>
       </c>
       <c r="E139" t="n">
-        <v>668107142</v>
+        <v>668342026</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6083,13 +6150,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>62318</v>
+        <v>62354</v>
       </c>
       <c r="D140" t="n">
-        <v>12964</v>
+        <v>12967</v>
       </c>
       <c r="E140" t="n">
-        <v>360231488</v>
+        <v>360469850</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6124,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>23047</v>
+        <v>23064</v>
       </c>
       <c r="D141" t="n">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="E141" t="n">
-        <v>189497701</v>
+        <v>189608582</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10928</v>
+        <v>10940</v>
       </c>
       <c r="D142" t="n">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="E142" t="n">
-        <v>169413011</v>
+        <v>169654422</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6273,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3831</v>
+        <v>3836</v>
       </c>
       <c r="D143" t="n">
         <v>742</v>
       </c>
       <c r="E143" t="n">
-        <v>146224282</v>
+        <v>146401195</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6452,13 +6519,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>56103</v>
+        <v>56119</v>
       </c>
       <c r="D149" t="n">
-        <v>13130</v>
+        <v>13132</v>
       </c>
       <c r="E149" t="n">
-        <v>114634534</v>
+        <v>114668261</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6493,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>97124</v>
+        <v>97150</v>
       </c>
       <c r="D150" t="n">
-        <v>17252</v>
+        <v>17253</v>
       </c>
       <c r="E150" t="n">
-        <v>333577335</v>
+        <v>333661703</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>196048</v>
+        <v>196115</v>
       </c>
       <c r="D151" t="n">
-        <v>39141</v>
+        <v>39142</v>
       </c>
       <c r="E151" t="n">
-        <v>770705052</v>
+        <v>770950384</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>70002</v>
+        <v>70036</v>
       </c>
       <c r="D152" t="n">
         <v>13837</v>
       </c>
       <c r="E152" t="n">
-        <v>401854000</v>
+        <v>402046898</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6683,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>23921</v>
+        <v>23937</v>
       </c>
       <c r="D153" t="n">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="E153" t="n">
-        <v>189736176</v>
+        <v>189852394</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>11128</v>
+        <v>11143</v>
       </c>
       <c r="D154" t="n">
         <v>1987</v>
       </c>
       <c r="E154" t="n">
-        <v>168479031</v>
+        <v>168841579</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6765,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="D155" t="n">
         <v>685</v>
       </c>
       <c r="E155" t="n">
-        <v>129418663</v>
+        <v>129450775</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D156" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E156" t="n">
-        <v>32826684</v>
+        <v>32904206</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6903,13 +6970,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>69653</v>
+        <v>69679</v>
       </c>
       <c r="D160" t="n">
-        <v>15443</v>
+        <v>15450</v>
       </c>
       <c r="E160" t="n">
-        <v>130329657</v>
+        <v>130354786</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6944,13 +7011,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>33396</v>
+        <v>33403</v>
       </c>
       <c r="D161" t="n">
         <v>6484</v>
       </c>
       <c r="E161" t="n">
-        <v>115729367</v>
+        <v>115738801</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6985,13 +7052,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>81166</v>
+        <v>81203</v>
       </c>
       <c r="D162" t="n">
-        <v>17087</v>
+        <v>17089</v>
       </c>
       <c r="E162" t="n">
-        <v>347090812</v>
+        <v>347264724</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7093,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>34329</v>
+        <v>34349</v>
       </c>
       <c r="D163" t="n">
-        <v>7063</v>
+        <v>7064</v>
       </c>
       <c r="E163" t="n">
-        <v>202740137</v>
+        <v>202804862</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7067,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>11522</v>
+        <v>11527</v>
       </c>
       <c r="D164" t="n">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="E164" t="n">
-        <v>98854257</v>
+        <v>98888472</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7108,13 +7175,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>5692</v>
+        <v>5699</v>
       </c>
       <c r="D165" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E165" t="n">
-        <v>91559312</v>
+        <v>91723125</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7149,13 +7216,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2061</v>
+        <v>2066</v>
       </c>
       <c r="D166" t="n">
         <v>408</v>
       </c>
       <c r="E166" t="n">
-        <v>80488657</v>
+        <v>80744024</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7272,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>22252</v>
+        <v>22258</v>
       </c>
       <c r="D169" t="n">
-        <v>5230</v>
+        <v>5233</v>
       </c>
       <c r="E169" t="n">
-        <v>44194310</v>
+        <v>44202740</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7313,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>94739</v>
+        <v>94752</v>
       </c>
       <c r="D170" t="n">
         <v>16794</v>
       </c>
       <c r="E170" t="n">
-        <v>322902490</v>
+        <v>322934778</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7354,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>219560</v>
+        <v>219646</v>
       </c>
       <c r="D171" t="n">
         <v>40861</v>
       </c>
       <c r="E171" t="n">
-        <v>880415434</v>
+        <v>880837295</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7395,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>77807</v>
+        <v>77829</v>
       </c>
       <c r="D172" t="n">
-        <v>14036</v>
+        <v>14037</v>
       </c>
       <c r="E172" t="n">
-        <v>467476737</v>
+        <v>467544397</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>27479</v>
+        <v>27491</v>
       </c>
       <c r="D173" t="n">
         <v>4714</v>
       </c>
       <c r="E173" t="n">
-        <v>247552084</v>
+        <v>247797582</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7477,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>13755</v>
+        <v>13771</v>
       </c>
       <c r="D174" t="n">
         <v>2246</v>
       </c>
       <c r="E174" t="n">
-        <v>230848713</v>
+        <v>231463128</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7559,13 +7626,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D176" t="n">
         <v>125</v>
       </c>
       <c r="E176" t="n">
-        <v>46973015</v>
+        <v>47003867</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7764,13 +7831,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>67231</v>
+        <v>67254</v>
       </c>
       <c r="D181" t="n">
-        <v>13685</v>
+        <v>13689</v>
       </c>
       <c r="E181" t="n">
-        <v>132043660</v>
+        <v>132073862</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
